--- a/tut04/output_by_subject/MM201.csv.xlsx
+++ b/tut04/output_by_subject/MM201.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,6 +700,270 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2001MM04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2001MM13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2001MM29</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2001MM37</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2001MM24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2001MM23</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2001MM18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2001MM14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2001MM10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2001MM09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2001MM03</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2001MM01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MM201</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
